--- a/DB Specification/ENCLICK_테이블 명세서_DELV_DTL.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_DELV_DTL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Downloads\ENCLICK_테이블명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC621CC-1006-4B92-853B-42F093A0E873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE374DF-8D47-4930-9B0A-6CF823612BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11505" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +384,18 @@
   </si>
   <si>
     <t>DELV_MST</t>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1097,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="104" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -1211,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -1231,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -1348,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1361,12 +1369,12 @@
         <v>7</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="37" t="s">
@@ -1379,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -1392,16 +1400,16 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>64</v>
@@ -1416,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -1429,16 +1437,16 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>64</v>
@@ -1453,10 +1461,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>1</v>
@@ -1469,7 +1477,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="37"/>
@@ -1482,15 +1490,17 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1508,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="37"/>
@@ -1688,7 +1698,7 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -1705,7 +1715,7 @@
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
@@ -1722,7 +1732,7 @@
     </row>
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
@@ -1785,7 +1795,7 @@
     </row>
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
-        <f t="shared" ref="B41:B48" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "&amp; CHAR(10)</f>
+        <f t="shared" ref="B41:B45" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "&amp; CHAR(10)</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송위치정보SEQ' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'DELV_DTL', @level2type=N'COLUMN',@level2name=N'DELV_POS_SEQ' 
 </v>
       </c>
@@ -2002,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2016,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2080,7 +2090,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="29"/>
       <c r="C19" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IF(C20&lt;&gt;"",",","")</f>
@@ -2091,7 +2101,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="29"/>
       <c r="C20" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IF(C21&lt;&gt;"",",","")</f>
@@ -2121,7 +2131,7 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="29"/>
       <c r="C23" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IF(C24&lt;&gt;"",",","")</f>
@@ -2132,7 +2142,7 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="C24" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>IF(C25&lt;&gt;"",",","")</f>

--- a/DB Specification/ENCLICK_테이블 명세서_DELV_DTL.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_DELV_DTL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE374DF-8D47-4930-9B0A-6CF823612BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7F65F-6A74-44E5-8880-01807D5F402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11505" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="104" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A25" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1390,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>1</v>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
